--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -648,31 +648,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 50984-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 50984-2020.xlsx", "A 50984-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 50984-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 50984-2020.png", "A 50984-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 50984-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 50984-2020.png", "A 50984-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 50984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 50984-2020.docx", "A 50984-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 50984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 50984-2020.docx", "A 50984-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 50984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 50984-2020.docx", "A 50984-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 50984-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 50984-2020.docx", "A 50984-2020")</f>
         <v/>
       </c>
     </row>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,27 +753,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 57656-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 57656-2018.xlsx", "A 57656-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 57656-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 57656-2018.png", "A 57656-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 57656-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 57656-2018.docx", "A 57656-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 57656-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 57656-2018.docx", "A 57656-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 57656-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 57656-2018.docx", "A 57656-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 57656-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 57656-2018.docx", "A 57656-2018")</f>
         <v/>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,27 +853,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 18563-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 18563-2022.xlsx", "A 18563-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 18563-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 18563-2022.png", "A 18563-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 18563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 18563-2022.docx", "A 18563-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 18563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 18563-2022.docx", "A 18563-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 18563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 18563-2022.docx", "A 18563-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 18563-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 18563-2022.docx", "A 18563-2022")</f>
         <v/>
       </c>
     </row>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -951,27 +951,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 50643-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 50643-2020.xlsx", "A 50643-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 50643-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 50643-2020.png", "A 50643-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 50643-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 50643-2020.docx", "A 50643-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 50643-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 50643-2020.docx", "A 50643-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 50643-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 50643-2020.docx", "A 50643-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 50643-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 50643-2020.docx", "A 50643-2020")</f>
         <v/>
       </c>
     </row>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,31 +1049,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 3454-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 3454-2021.xlsx", "A 3454-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 3454-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 3454-2021.png", "A 3454-2021")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 3454-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 3454-2021.png", "A 3454-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 3454-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 3454-2021.docx", "A 3454-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 3454-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 3454-2021.docx", "A 3454-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 3454-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 3454-2021.docx", "A 3454-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 3454-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 3454-2021.docx", "A 3454-2021")</f>
         <v/>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,27 +1146,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 34711-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 34711-2023.xlsx", "A 34711-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 34711-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 34711-2023.png", "A 34711-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 34711-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 34711-2023.docx", "A 34711-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 34711-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 34711-2023.docx", "A 34711-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 34711-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 34711-2023.docx", "A 34711-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 34711-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 34711-2023.docx", "A 34711-2023")</f>
         <v/>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,27 +1238,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 44262-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 44262-2019.xlsx", "A 44262-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 44262-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 44262-2019.png", "A 44262-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 44262-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 44262-2019.docx", "A 44262-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 44262-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 44262-2019.docx", "A 44262-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 44262-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 44262-2019.docx", "A 44262-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 44262-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 44262-2019.docx", "A 44262-2019")</f>
         <v/>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,31 +1335,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 58447-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 58447-2022.xlsx", "A 58447-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 58447-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 58447-2022.png", "A 58447-2022")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 58447-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 58447-2022.png", "A 58447-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 58447-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 58447-2022.docx", "A 58447-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 58447-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 58447-2022.docx", "A 58447-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 58447-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 58447-2022.docx", "A 58447-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 58447-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 58447-2022.docx", "A 58447-2022")</f>
         <v/>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,27 +1429,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 64063-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 64063-2018.xlsx", "A 64063-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 64063-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 64063-2018.png", "A 64063-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 64063-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 64063-2018.docx", "A 64063-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 64063-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 64063-2018.docx", "A 64063-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 64063-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 64063-2018.docx", "A 64063-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 64063-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 64063-2018.docx", "A 64063-2018")</f>
         <v/>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1524,27 +1524,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 68615-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 68615-2019.xlsx", "A 68615-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 68615-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 68615-2019.png", "A 68615-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 68615-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 68615-2019.docx", "A 68615-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 68615-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 68615-2019.docx", "A 68615-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 68615-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 68615-2019.docx", "A 68615-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 68615-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 68615-2019.docx", "A 68615-2019")</f>
         <v/>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1614,27 +1614,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 2823-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 2823-2021.xlsx", "A 2823-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 2823-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 2823-2021.png", "A 2823-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 2823-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 2823-2021.docx", "A 2823-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 2823-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 2823-2021.docx", "A 2823-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 2823-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 2823-2021.docx", "A 2823-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 2823-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 2823-2021.docx", "A 2823-2021")</f>
         <v/>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1709,27 +1709,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 18764-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 18764-2023.xlsx", "A 18764-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 18764-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 18764-2023.png", "A 18764-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 18764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 18764-2023.docx", "A 18764-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 18764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 18764-2023.docx", "A 18764-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 18764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 18764-2023.docx", "A 18764-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 18764-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 18764-2023.docx", "A 18764-2023")</f>
         <v/>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1798,27 +1798,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 11693-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 11693-2020.xlsx", "A 11693-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 11693-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 11693-2020.png", "A 11693-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 11693-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 11693-2020.docx", "A 11693-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 11693-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 11693-2020.docx", "A 11693-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 11693-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 11693-2020.docx", "A 11693-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 11693-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 11693-2020.docx", "A 11693-2020")</f>
         <v/>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1892,31 +1892,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 50644-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 50644-2020.xlsx", "A 50644-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 50644-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 50644-2020.png", "A 50644-2020")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 50644-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 50644-2020.png", "A 50644-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 50644-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 50644-2020.docx", "A 50644-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 50644-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 50644-2020.docx", "A 50644-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 50644-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 50644-2020.docx", "A 50644-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 50644-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 50644-2020.docx", "A 50644-2020")</f>
         <v/>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1990,27 +1990,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 52716-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 52716-2022.xlsx", "A 52716-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 52716-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 52716-2022.png", "A 52716-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 52716-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 52716-2022.docx", "A 52716-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 52716-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 52716-2022.docx", "A 52716-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 52716-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 52716-2022.docx", "A 52716-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 52716-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 52716-2022.docx", "A 52716-2022")</f>
         <v/>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2083,27 +2083,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 57657-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 57657-2018.xlsx", "A 57657-2018")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 57657-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 57657-2018.png", "A 57657-2018")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 57657-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 57657-2018.docx", "A 57657-2018")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 57657-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 57657-2018.docx", "A 57657-2018")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 57657-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 57657-2018.docx", "A 57657-2018")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 57657-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 57657-2018.docx", "A 57657-2018")</f>
         <v/>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,27 +2176,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 16545-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 16545-2019.xlsx", "A 16545-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 16545-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 16545-2019.png", "A 16545-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 16545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 16545-2019.docx", "A 16545-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 16545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 16545-2019.docx", "A 16545-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 16545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 16545-2019.docx", "A 16545-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 16545-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 16545-2019.docx", "A 16545-2019")</f>
         <v/>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2269,31 +2269,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 44513-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 44513-2020.xlsx", "A 44513-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 44513-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 44513-2020.png", "A 44513-2020")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 44513-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 44513-2020.png", "A 44513-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 44513-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 44513-2020.docx", "A 44513-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 44513-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 44513-2020.docx", "A 44513-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 44513-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 44513-2020.docx", "A 44513-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 44513-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 44513-2020.docx", "A 44513-2020")</f>
         <v/>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,27 +2366,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 54192-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 54192-2020.xlsx", "A 54192-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 54192-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 54192-2020.png", "A 54192-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 54192-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 54192-2020.docx", "A 54192-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 54192-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 54192-2020.docx", "A 54192-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 54192-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 54192-2020.docx", "A 54192-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 54192-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 54192-2020.docx", "A 54192-2020")</f>
         <v/>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2459,27 +2459,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 51566-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 51566-2022.xlsx", "A 51566-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 51566-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 51566-2022.png", "A 51566-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 51566-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 51566-2022.docx", "A 51566-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 51566-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 51566-2022.docx", "A 51566-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 51566-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 51566-2022.docx", "A 51566-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 51566-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 51566-2022.docx", "A 51566-2022")</f>
         <v/>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2552,27 +2552,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 52726-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 52726-2022.xlsx", "A 52726-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 52726-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 52726-2022.png", "A 52726-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 52726-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 52726-2022.docx", "A 52726-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 52726-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 52726-2022.docx", "A 52726-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 52726-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 52726-2022.docx", "A 52726-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 52726-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 52726-2022.docx", "A 52726-2022")</f>
         <v/>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,27 +2645,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 24540-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 24540-2023.xlsx", "A 24540-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 24540-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 24540-2023.png", "A 24540-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 24540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 24540-2023.docx", "A 24540-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 24540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 24540-2023.docx", "A 24540-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 24540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 24540-2023.docx", "A 24540-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 24540-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 24540-2023.docx", "A 24540-2023")</f>
         <v/>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2737,27 +2737,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 46768-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 46768-2019.xlsx", "A 46768-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 46768-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 46768-2019.png", "A 46768-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 46768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 46768-2019.docx", "A 46768-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 46768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 46768-2019.docx", "A 46768-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 46768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 46768-2019.docx", "A 46768-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 46768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 46768-2019.docx", "A 46768-2019")</f>
         <v/>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2824,27 +2824,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 8629-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 8629-2021.xlsx", "A 8629-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 8629-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 8629-2021.png", "A 8629-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 8629-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 8629-2021.docx", "A 8629-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 8629-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 8629-2021.docx", "A 8629-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 8629-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 8629-2021.docx", "A 8629-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 8629-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 8629-2021.docx", "A 8629-2021")</f>
         <v/>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2911,27 +2911,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 23497-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 23497-2021.xlsx", "A 23497-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 23497-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 23497-2021.png", "A 23497-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 23497-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 23497-2021.docx", "A 23497-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 23497-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 23497-2021.docx", "A 23497-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 23497-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 23497-2021.docx", "A 23497-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 23497-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 23497-2021.docx", "A 23497-2021")</f>
         <v/>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3003,31 +3003,31 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 18555-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 18555-2022.xlsx", "A 18555-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 18555-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 18555-2022.png", "A 18555-2022")</f>
         <v/>
       </c>
       <c r="U27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 18555-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 18555-2022.png", "A 18555-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 18555-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 18555-2022.docx", "A 18555-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 18555-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 18555-2022.docx", "A 18555-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 18555-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 18555-2022.docx", "A 18555-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 18555-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 18555-2022.docx", "A 18555-2022")</f>
         <v/>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3094,27 +3094,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 16182-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 16182-2023.xlsx", "A 16182-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 16182-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 16182-2023.png", "A 16182-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 16182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 16182-2023.docx", "A 16182-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 16182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 16182-2023.docx", "A 16182-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 16182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 16182-2023.docx", "A 16182-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 16182-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 16182-2023.docx", "A 16182-2023")</f>
         <v/>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3186,27 +3186,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 18765-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 18765-2023.xlsx", "A 18765-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 18765-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 18765-2023.png", "A 18765-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 18765-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 18765-2023.docx", "A 18765-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 18765-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 18765-2023.docx", "A 18765-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 18765-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 18765-2023.docx", "A 18765-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 18765-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 18765-2023.docx", "A 18765-2023")</f>
         <v/>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3278,27 +3278,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 26007-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 26007-2023.xlsx", "A 26007-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 26007-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 26007-2023.png", "A 26007-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 26007-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 26007-2023.docx", "A 26007-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 26007-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 26007-2023.docx", "A 26007-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 26007-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 26007-2023.docx", "A 26007-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 26007-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 26007-2023.docx", "A 26007-2023")</f>
         <v/>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,27 +3364,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 57370-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 57370-2020.xlsx", "A 57370-2020")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 57370-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 57370-2020.png", "A 57370-2020")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 57370-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 57370-2020.docx", "A 57370-2020")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 57370-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 57370-2020.docx", "A 57370-2020")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 57370-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 57370-2020.docx", "A 57370-2020")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 57370-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 57370-2020.docx", "A 57370-2020")</f>
         <v/>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3455,27 +3455,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 52727-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 52727-2022.xlsx", "A 52727-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 52727-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 52727-2022.png", "A 52727-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 52727-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 52727-2022.docx", "A 52727-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 52727-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 52727-2022.docx", "A 52727-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 52727-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 52727-2022.docx", "A 52727-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 52727-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 52727-2022.docx", "A 52727-2022")</f>
         <v/>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3541,27 +3541,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 16181-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 16181-2023.xlsx", "A 16181-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 16181-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 16181-2023.png", "A 16181-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 16181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 16181-2023.docx", "A 16181-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 16181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 16181-2023.docx", "A 16181-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 16181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 16181-2023.docx", "A 16181-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 16181-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 16181-2023.docx", "A 16181-2023")</f>
         <v/>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3632,27 +3632,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 19432-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 19432-2023.xlsx", "A 19432-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 19432-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 19432-2023.png", "A 19432-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 19432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 19432-2023.docx", "A 19432-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 19432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 19432-2023.docx", "A 19432-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 19432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 19432-2023.docx", "A 19432-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 19432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 19432-2023.docx", "A 19432-2023")</f>
         <v/>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3722,27 +3722,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 12809-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 12809-2021.xlsx", "A 12809-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 12809-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 12809-2021.png", "A 12809-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 12809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 12809-2021.docx", "A 12809-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 12809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 12809-2021.docx", "A 12809-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 12809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 12809-2021.docx", "A 12809-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 12809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 12809-2021.docx", "A 12809-2021")</f>
         <v/>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3807,27 +3807,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 21740-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 21740-2021.xlsx", "A 21740-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 21740-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 21740-2021.png", "A 21740-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 21740-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 21740-2021.docx", "A 21740-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 21740-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 21740-2021.docx", "A 21740-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 21740-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 21740-2021.docx", "A 21740-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 21740-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 21740-2021.docx", "A 21740-2021")</f>
         <v/>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3897,27 +3897,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 32102-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 32102-2021.xlsx", "A 32102-2021")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 32102-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 32102-2021.png", "A 32102-2021")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 32102-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 32102-2021.docx", "A 32102-2021")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 32102-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 32102-2021.docx", "A 32102-2021")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 32102-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 32102-2021.docx", "A 32102-2021")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 32102-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 32102-2021.docx", "A 32102-2021")</f>
         <v/>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3987,27 +3987,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 66478-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 66478-2021.xlsx", "A 66478-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 66478-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 66478-2021.png", "A 66478-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 66478-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 66478-2021.docx", "A 66478-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 66478-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 66478-2021.docx", "A 66478-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 66478-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 66478-2021.docx", "A 66478-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 66478-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 66478-2021.docx", "A 66478-2021")</f>
         <v/>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4072,27 +4072,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 74325-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 74325-2021.xlsx", "A 74325-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 74325-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 74325-2021.png", "A 74325-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 74325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 74325-2021.docx", "A 74325-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 74325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 74325-2021.docx", "A 74325-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 74325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 74325-2021.docx", "A 74325-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 74325-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 74325-2021.docx", "A 74325-2021")</f>
         <v/>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4157,27 +4157,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 4908-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 4908-2022.xlsx", "A 4908-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 4908-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 4908-2022.png", "A 4908-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 4908-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 4908-2022.docx", "A 4908-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 4908-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 4908-2022.docx", "A 4908-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 4908-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 4908-2022.docx", "A 4908-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 4908-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 4908-2022.docx", "A 4908-2022")</f>
         <v/>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4242,27 +4242,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 15846-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 15846-2022.xlsx", "A 15846-2022")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 15846-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 15846-2022.png", "A 15846-2022")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 15846-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 15846-2022.docx", "A 15846-2022")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 15846-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 15846-2022.docx", "A 15846-2022")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 15846-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 15846-2022.docx", "A 15846-2022")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 15846-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 15846-2022.docx", "A 15846-2022")</f>
         <v/>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4332,27 +4332,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 19827-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 19827-2022.xlsx", "A 19827-2022")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 19827-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 19827-2022.png", "A 19827-2022")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 19827-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 19827-2022.docx", "A 19827-2022")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 19827-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 19827-2022.docx", "A 19827-2022")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 19827-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 19827-2022.docx", "A 19827-2022")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 19827-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 19827-2022.docx", "A 19827-2022")</f>
         <v/>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4422,27 +4422,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 28715-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 28715-2022.xlsx", "A 28715-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 28715-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 28715-2022.png", "A 28715-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 28715-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 28715-2022.docx", "A 28715-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 28715-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 28715-2022.docx", "A 28715-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 28715-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 28715-2022.docx", "A 28715-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 28715-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 28715-2022.docx", "A 28715-2022")</f>
         <v/>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4512,31 +4512,31 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 51565-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 51565-2022.xlsx", "A 51565-2022")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 51565-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 51565-2022.png", "A 51565-2022")</f>
         <v/>
       </c>
       <c r="U44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 51565-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/knärot/A 51565-2022.png", "A 51565-2022")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 51565-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 51565-2022.docx", "A 51565-2022")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 51565-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 51565-2022.docx", "A 51565-2022")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 51565-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 51565-2022.docx", "A 51565-2022")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 51565-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 51565-2022.docx", "A 51565-2022")</f>
         <v/>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4606,27 +4606,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 59042-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 59042-2022.xlsx", "A 59042-2022")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 59042-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 59042-2022.png", "A 59042-2022")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 59042-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 59042-2022.docx", "A 59042-2022")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 59042-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 59042-2022.docx", "A 59042-2022")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 59042-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 59042-2022.docx", "A 59042-2022")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 59042-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 59042-2022.docx", "A 59042-2022")</f>
         <v/>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4691,27 +4691,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 13984-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 13984-2023.xlsx", "A 13984-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 13984-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 13984-2023.png", "A 13984-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 13984-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 13984-2023.docx", "A 13984-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 13984-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 13984-2023.docx", "A 13984-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 13984-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 13984-2023.docx", "A 13984-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 13984-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 13984-2023.docx", "A 13984-2023")</f>
         <v/>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4781,27 +4781,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 17876-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/artfynd/A 17876-2023.xlsx", "A 17876-2023")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 17876-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/kartor/A 17876-2023.png", "A 17876-2023")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 17876-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomål/A 17876-2023.docx", "A 17876-2023")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 17876-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/klagomålsmail/A 17876-2023.docx", "A 17876-2023")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 17876-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsyn/A 17876-2023.docx", "A 17876-2023")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 17876-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HARNOSAND/tillsynsmail/A 17876-2023.docx", "A 17876-2023")</f>
         <v/>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>

--- a/Översikt HÄRNÖSAND.xlsx
+++ b/Översikt HÄRNÖSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>43404</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44180</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>43710</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44901</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44215</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45043</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>44110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         <v>44874</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>43404</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>43546</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>44084</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44869</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45082</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43718</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44245</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>44686</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45027</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45043</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>45090</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44139</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>45027</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>45049</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44270</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>44321</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44370</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44518</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>44559</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44593</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>44664</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44694</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>44748</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44869</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45008</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45038</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43364</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>43396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>43409</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>43425</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43429</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>43433</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43434</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43440</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>43440</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>43444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>43444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>43452</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43454</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43479</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43483</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43514</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43522</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>43537</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>43539</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>43543</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43543</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43543</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43546</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43546</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43549</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>43550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43560</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43571</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43571</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43571</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43571</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43571</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43572</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>43572</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>43594</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>43598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>43600</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>43628</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43640</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43640</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>43657</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>43697</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43697</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>43699</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43708</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43719</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43727</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43740</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43742</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43768</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43774</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>43782</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>43787</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>43796</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>43796</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>43803</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>43837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>43837</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>43844</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>43852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>43872</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>43875</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>43878</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>43893</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>43893</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>43893</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>43908</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>43909</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>43915</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>43916</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>43924</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>43927</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>43944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>43951</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>43951</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>43951</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>43951</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>43958</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>43958</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>43962</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>43969</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43969</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>43969</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>43969</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>43971</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43986</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>43986</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>43986</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>43986</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>43987</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>43990</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>43999</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44006</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44006</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44007</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44007</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44014</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44014</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44014</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44014</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44019</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44041</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44064</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44064</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44064</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44069</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44069</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44075</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44075</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44090</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44097</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44116</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44116</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44116</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>44123</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44123</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44126</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44126</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44126</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44138</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44138</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44139</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44146</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44147</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44151</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44165</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44166</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>44182</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44182</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44182</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14241,7 +14241,7 @@
         <v>44182</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>44188</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>44192</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>44221</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>44221</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>44222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>44229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
         <v>44242</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44263</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44263</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44263</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         <v>44287</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14935,7 +14935,7 @@
         <v>44301</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
         <v>44301</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
         <v>44301</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         <v>44301</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15163,7 +15163,7 @@
         <v>44314</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15220,7 +15220,7 @@
         <v>44320</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15277,7 +15277,7 @@
         <v>44320</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15334,7 +15334,7 @@
         <v>44321</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>44321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>44321</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>44321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>44321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15619,7 +15619,7 @@
         <v>44347</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44370</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15795,7 +15795,7 @@
         <v>44382</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15852,7 +15852,7 @@
         <v>44384</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44386</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44390</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>44392</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16080,7 +16080,7 @@
         <v>44404</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>44424</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16194,7 +16194,7 @@
         <v>44434</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44434</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>44434</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>44434</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>44438</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44447</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>44448</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>44452</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>44469</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>44475</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>44476</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>44487</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44496</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>44497</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>44498</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44502</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44504</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44512</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44512</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44512</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44517</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>44517</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>44522</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44522</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44522</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44532</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44532</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44536</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44544</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44553</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>44559</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         <v>44571</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44571</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44572</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44573</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>44573</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         <v>44573</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         <v>44581</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44585</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         <v>44596</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18628,7 +18628,7 @@
         <v>44600</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44601</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44603</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44603</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         <v>44606</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18923,7 +18923,7 @@
         <v>44608</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18980,7 +18980,7 @@
         <v>44609</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19042,7 +19042,7 @@
         <v>44615</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>44617</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19156,7 +19156,7 @@
         <v>44641</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
         <v>44642</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44652</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44652</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19389,7 +19389,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19446,7 +19446,7 @@
         <v>44663</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>44663</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19560,7 +19560,7 @@
         <v>44664</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19617,7 +19617,7 @@
         <v>44664</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19674,7 +19674,7 @@
         <v>44664</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44664</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44671</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44672</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44676</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44676</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44679</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44684</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20135,7 +20135,7 @@
         <v>44685</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>44691</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20254,7 +20254,7 @@
         <v>44693</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>44697</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20373,7 +20373,7 @@
         <v>44706</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20430,7 +20430,7 @@
         <v>44720</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20487,7 +20487,7 @@
         <v>44720</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20601,7 +20601,7 @@
         <v>44728</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>44728</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>44732</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>44732</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>44734</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44735</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44747</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21000,7 +21000,7 @@
         <v>44748</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44750</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44752</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44755</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44755</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44755</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44776</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44783</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44790</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44791</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>44792</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44792</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>44802</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44804</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44806</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44806</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44806</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44816</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44824</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44824</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44831</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44833</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44834</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44834</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44837</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44837</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>44846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44847</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         <v>44847</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44848</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44848</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44848</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>44851</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>44851</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44853</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44853</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>44853</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44853</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>44858</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44860</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44868</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>44869</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>44872</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44874</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>44875</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>44875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>44881</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23791,7 +23791,7 @@
         <v>44883</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44890</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>44894</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44894</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24329,7 +24329,7 @@
         <v>44897</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>44897</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44897</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>44903</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44911</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44916</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24681,7 +24681,7 @@
         <v>44945</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>44952</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44957</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>44971</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44971</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>44973</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>44978</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>44980</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>44987</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25214,7 +25214,7 @@
         <v>44991</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
         <v>44993</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44993</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45000</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45000</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45005</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45006</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45006</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45007</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45009</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45015</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45035</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45041</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45044</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>45044</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45044</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         <v>45044</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>45044</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45044</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45044</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>45049</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45056</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>45058</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>45072</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45072</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45072</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>45072</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45072</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45075</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>45081</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>45081</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>45085</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>45089</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>45089</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45091</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         <v>45091</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45096</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45097</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45097</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45098</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45099</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45099</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45107</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>45107</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45107</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>45107</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>45107</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45112</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45113</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45113</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45113</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45113</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45117</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>45117</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>45126</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>45126</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>45126</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45126</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29029,7 +29029,7 @@
         <v>45126</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29086,7 +29086,7 @@
         <v>45133</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29143,7 +29143,7 @@
         <v>45139</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>45140</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>45140</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>45146</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45147</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>45147</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>45149</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>45149</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>45159</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45159</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45160</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45161</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45161</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45166</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45168</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45168</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
